--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-05-01</t>
+    <t>2022-02-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1829,7 +1829,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
     <t>Used when reporting systolic and diastolic blood pressure.</t>
@@ -22530,7 +22530,7 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F171" t="s" s="2">
         <v>89</v>
@@ -25009,7 +25009,7 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F192" t="s" s="2">
         <v>89</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$170</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8243" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6369" uniqueCount="678">
   <si>
     <t>Property</t>
   </si>
@@ -1835,7 +1835,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see Notes below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -1944,12 +1944,6 @@
     <t>SystolicBP</t>
   </si>
   <si>
-    <t>Peak  systemic arterial blood pressure - measured in systolic or contraction phase of the heart cycle.</t>
-  </si>
-  <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
-  </si>
-  <si>
     <t>Component Test
 Component Name</t>
   </si>
@@ -2133,9 +2127,6 @@
     <t>DiastolicBP</t>
   </si>
   <si>
-    <t>Minimum systemic arterial blood pressure - measured in the diastolic or relaxation phase of the heart cycle.</t>
-  </si>
-  <si>
     <t>Diastolic Blood Pressure</t>
   </si>
   <si>
@@ -2146,37 +2137,6 @@
   </si>
   <si>
     <t>8462-4</t>
-  </si>
-  <si>
-    <t>MeanArterialPressure</t>
-  </si>
-  <si>
-    <t>The average arterial pressure that occurs over the entire course of the heart contraction and relaxation cycle.</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>PulsePressure</t>
-  </si>
-  <si>
-    <t>The difference between the systolic and diastolic pressure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>SAPSnomedCode</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>4461000202102</t>
   </si>
 </sst>
 </file>
@@ -2488,7 +2448,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO220"/>
+  <dimension ref="A1:AO170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2498,7 +2458,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="47.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.73046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -15948,13 +15908,13 @@
         <v>511</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="L115" t="s" s="2">
         <v>579</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>581</v>
@@ -16396,7 +16356,7 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -16511,7 +16471,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16626,7 +16586,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16743,7 +16703,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16769,10 +16729,10 @@
         <v>238</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>241</v>
@@ -16860,10 +16820,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>79</v>
@@ -16888,10 +16848,10 @@
         <v>238</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>241</v>
@@ -16981,7 +16941,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17096,7 +17056,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17213,7 +17173,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17332,7 +17292,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17449,7 +17409,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17489,7 +17449,7 @@
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="R128" t="s" s="2">
         <v>79</v>
@@ -17566,7 +17526,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17683,7 +17643,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17802,7 +17762,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18040,7 +18000,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18155,7 +18115,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18272,7 +18232,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18295,19 +18255,19 @@
         <v>90</v>
       </c>
       <c r="J135" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="K135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>79</v>
@@ -18356,7 +18316,7 @@
         <v>79</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -18377,10 +18337,10 @@
         <v>79</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>79</v>
@@ -18391,7 +18351,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18417,20 +18377,20 @@
         <v>109</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P136" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q136" t="s" s="2">
         <v>79</v>
@@ -18454,28 +18414,28 @@
         <v>208</v>
       </c>
       <c r="X136" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE136" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -18496,10 +18456,10 @@
         <v>79</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>79</v>
@@ -18510,7 +18470,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18536,14 +18496,14 @@
         <v>91</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>79</v>
@@ -18592,7 +18552,7 @@
         <v>79</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
@@ -18613,10 +18573,10 @@
         <v>79</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>79</v>
@@ -18627,7 +18587,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18653,72 +18613,72 @@
         <v>103</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH138" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="R138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>101</v>
@@ -18730,10 +18690,10 @@
         <v>79</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>79</v>
@@ -18744,7 +18704,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18770,23 +18730,23 @@
         <v>109</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="R139" t="s" s="2">
         <v>79</v>
@@ -18828,7 +18788,7 @@
         <v>79</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
@@ -18849,10 +18809,10 @@
         <v>79</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>79</v>
@@ -19223,7 +19183,7 @@
         <v>577</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>79</v>
@@ -19248,13 +19208,13 @@
         <v>511</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>676</v>
+        <v>579</v>
       </c>
       <c r="L143" t="s" s="2">
         <v>579</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>581</v>
@@ -19811,7 +19771,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19926,7 +19886,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20043,7 +20003,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20069,10 +20029,10 @@
         <v>238</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>241</v>
@@ -20160,10 +20120,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>79</v>
@@ -20188,10 +20148,10 @@
         <v>238</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>241</v>
@@ -20281,7 +20241,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20396,7 +20356,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20513,7 +20473,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20632,7 +20592,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20749,7 +20709,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20789,7 +20749,7 @@
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="R156" t="s" s="2">
         <v>79</v>
@@ -20866,7 +20826,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20983,7 +20943,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21102,7 +21062,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21340,7 +21300,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21455,7 +21415,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21572,7 +21532,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21595,19 +21555,19 @@
         <v>90</v>
       </c>
       <c r="J163" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="K163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>79</v>
@@ -21656,7 +21616,7 @@
         <v>79</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -21677,10 +21637,10 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>79</v>
@@ -21691,7 +21651,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21717,20 +21677,20 @@
         <v>109</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P164" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>79</v>
@@ -21754,28 +21714,28 @@
         <v>208</v>
       </c>
       <c r="X164" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE164" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -21796,10 +21756,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21810,7 +21770,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21836,14 +21796,14 @@
         <v>91</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>79</v>
@@ -21892,7 +21852,7 @@
         <v>79</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
@@ -21913,10 +21873,10 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>79</v>
@@ -21927,7 +21887,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21953,72 +21913,72 @@
         <v>103</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="R166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH166" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="R166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>101</v>
@@ -22030,10 +21990,10 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>79</v>
@@ -22044,7 +22004,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22070,23 +22030,23 @@
         <v>109</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="R167" t="s" s="2">
         <v>79</v>
@@ -22128,7 +22088,7 @@
         <v>79</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -22149,10 +22109,10 @@
         <v>79</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>79</v>
@@ -22518,5906 +22478,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F171" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G171" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J171" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P171" s="2"/>
-      <c r="Q171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL171" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AN171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO171" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="172" hidden="true">
-      <c r="A172" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="B172" s="2"/>
-      <c r="C172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F172" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J172" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P172" s="2"/>
-      <c r="Q172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM172" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN172" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO172" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="173" hidden="true">
-      <c r="A173" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F173" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N173" s="2"/>
-      <c r="O173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P173" s="2"/>
-      <c r="Q173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM173" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO173" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="174" hidden="true">
-      <c r="A174" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B174" s="2"/>
-      <c r="C174" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F174" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P174" s="2"/>
-      <c r="Q174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO174" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F175" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G175" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P175" s="2"/>
-      <c r="Q175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL175" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AM175" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AN175" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AO175" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="176" hidden="true">
-      <c r="A176" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F176" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P176" s="2"/>
-      <c r="Q176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM176" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO176" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="177" hidden="true">
-      <c r="A177" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N177" s="2"/>
-      <c r="O177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P177" s="2"/>
-      <c r="Q177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM177" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO177" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="178" hidden="true">
-      <c r="A178" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B178" s="2"/>
-      <c r="C178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D178" s="2"/>
-      <c r="E178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F178" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I178" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P178" s="2"/>
-      <c r="Q178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL178" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO178" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="179" hidden="true">
-      <c r="A179" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F179" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I179" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J179" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K179" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P179" s="2"/>
-      <c r="Q179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL179" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM179" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO179" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="180" hidden="true">
-      <c r="A180" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B180" s="2"/>
-      <c r="C180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F180" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G180" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I180" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J180" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="K180" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P180" s="2"/>
-      <c r="Q180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AB180" s="2"/>
-      <c r="AC180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH180" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AI180" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AL180" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AM180" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AN180" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO180" t="s" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F181" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J181" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="K181" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P181" s="2"/>
-      <c r="Q181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W181" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X181" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="Y181" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE181" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AF181" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG181" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH181" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AI181" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK181" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AL181" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AM181" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AN181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO181" t="s" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="182" hidden="true">
-      <c r="A182" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B182" s="2"/>
-      <c r="C182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F182" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P182" s="2"/>
-      <c r="Q182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM182" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN182" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO182" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="183" hidden="true">
-      <c r="A183" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F183" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J183" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K183" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N183" s="2"/>
-      <c r="O183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P183" s="2"/>
-      <c r="Q183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA183" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB183" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD183" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE183" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF183" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG183" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI183" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM183" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN183" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO183" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="184" hidden="true">
-      <c r="A184" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="B184" s="2"/>
-      <c r="C184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D184" s="2"/>
-      <c r="E184" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F184" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J184" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P184" s="2"/>
-      <c r="Q184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AN184" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO184" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="185" hidden="true">
-      <c r="A185" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="B185" s="2"/>
-      <c r="C185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F185" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J185" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M185" s="2"/>
-      <c r="N185" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P185" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="Q185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W185" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X185" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="Y185" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE185" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AF185" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG185" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI185" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN185" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO185" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="186" hidden="true">
-      <c r="A186" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="B186" s="2"/>
-      <c r="C186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D186" s="2"/>
-      <c r="E186" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F186" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J186" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M186" s="2"/>
-      <c r="N186" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P186" s="2"/>
-      <c r="Q186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG186" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI186" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL186" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AM186" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AN186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO186" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="187" hidden="true">
-      <c r="A187" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="B187" s="2"/>
-      <c r="C187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F187" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J187" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K187" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="M187" s="2"/>
-      <c r="N187" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P187" s="2"/>
-      <c r="Q187" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="R187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG187" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH187" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AI187" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL187" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AM187" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="AN187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO187" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="188" hidden="true">
-      <c r="A188" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B188" s="2"/>
-      <c r="C188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F188" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J188" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K188" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P188" s="2"/>
-      <c r="Q188" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="R188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL188" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AM188" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AN188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO188" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F189" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P189" s="2"/>
-      <c r="Q189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL189" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM189" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AN189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO189" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="190" hidden="true">
-      <c r="A190" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F190" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P190" s="2"/>
-      <c r="Q190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK190" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AL190" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AM190" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AN190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO190" t="s" s="2">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="191" hidden="true">
-      <c r="A191" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F191" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P191" s="2"/>
-      <c r="Q191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL191" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AM191" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO191" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="C192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="E192" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F192" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G192" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J192" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="K192" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P192" s="2"/>
-      <c r="Q192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG192" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI192" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AJ192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL192" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AM192" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AN192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO192" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="193" hidden="true">
-      <c r="A193" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D193" s="2"/>
-      <c r="E193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J193" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P193" s="2"/>
-      <c r="Q193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM193" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN193" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO193" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="194" hidden="true">
-      <c r="A194" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B194" s="2"/>
-      <c r="C194" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D194" s="2"/>
-      <c r="E194" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F194" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J194" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N194" s="2"/>
-      <c r="O194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P194" s="2"/>
-      <c r="Q194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE194" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF194" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG194" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI194" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM194" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN194" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO194" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="195" hidden="true">
-      <c r="A195" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B195" s="2"/>
-      <c r="C195" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F195" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H195" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I195" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J195" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K195" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P195" s="2"/>
-      <c r="Q195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE195" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AF195" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG195" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI195" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM195" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN195" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO195" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B196" s="2"/>
-      <c r="C196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D196" s="2"/>
-      <c r="E196" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F196" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G196" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I196" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J196" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K196" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P196" s="2"/>
-      <c r="Q196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W196" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X196" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y196" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI196" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK196" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL196" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AM196" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AN196" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AO196" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="197" hidden="true">
-      <c r="A197" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B197" s="2"/>
-      <c r="C197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D197" s="2"/>
-      <c r="E197" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F197" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J197" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K197" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M197" s="2"/>
-      <c r="N197" s="2"/>
-      <c r="O197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P197" s="2"/>
-      <c r="Q197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE197" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF197" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG197" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM197" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN197" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO197" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="198" hidden="true">
-      <c r="A198" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B198" s="2"/>
-      <c r="C198" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D198" s="2"/>
-      <c r="E198" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F198" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J198" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K198" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N198" s="2"/>
-      <c r="O198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P198" s="2"/>
-      <c r="Q198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA198" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF198" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG198" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI198" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM198" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO198" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="199" hidden="true">
-      <c r="A199" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F199" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I199" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J199" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K199" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L199" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P199" s="2"/>
-      <c r="Q199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA199" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="AB199" s="2"/>
-      <c r="AC199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD199" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE199" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF199" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG199" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI199" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL199" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AM199" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN199" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO199" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="200" hidden="true">
-      <c r="A200" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B200" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="C200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F200" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I200" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J200" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K200" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P200" s="2"/>
-      <c r="Q200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF200" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG200" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI200" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL200" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AM200" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO200" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="201" hidden="true">
-      <c r="A201" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B201" s="2"/>
-      <c r="C201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F201" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J201" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K201" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P201" s="2"/>
-      <c r="Q201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM201" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN201" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO201" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="202" hidden="true">
-      <c r="A202" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B202" s="2"/>
-      <c r="C202" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D202" s="2"/>
-      <c r="E202" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F202" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J202" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K202" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N202" s="2"/>
-      <c r="O202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P202" s="2"/>
-      <c r="Q202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE202" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF202" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG202" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI202" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM202" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO202" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="203" hidden="true">
-      <c r="A203" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D203" s="2"/>
-      <c r="E203" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F203" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I203" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J203" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K203" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P203" s="2"/>
-      <c r="Q203" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="R203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE203" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF203" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG203" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI203" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL203" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AM203" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AN203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO203" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="204" hidden="true">
-      <c r="A204" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B204" s="2"/>
-      <c r="C204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D204" s="2"/>
-      <c r="E204" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F204" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I204" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J204" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K204" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N204" s="2"/>
-      <c r="O204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P204" s="2"/>
-      <c r="Q204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE204" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF204" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG204" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI204" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL204" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AM204" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO204" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="205" hidden="true">
-      <c r="A205" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="B205" s="2"/>
-      <c r="C205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F205" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I205" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J205" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K205" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M205" s="2"/>
-      <c r="N205" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P205" s="2"/>
-      <c r="Q205" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="R205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE205" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF205" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG205" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI205" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL205" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM205" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO205" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="206" hidden="true">
-      <c r="A206" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B206" s="2"/>
-      <c r="C206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F206" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I206" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J206" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K206" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M206" s="2"/>
-      <c r="N206" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P206" s="2"/>
-      <c r="Q206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE206" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF206" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG206" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI206" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL206" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM206" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN206" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO206" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="207" hidden="true">
-      <c r="A207" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B207" s="2"/>
-      <c r="C207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D207" s="2"/>
-      <c r="E207" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F207" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I207" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J207" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="K207" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="L207" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P207" s="2"/>
-      <c r="Q207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE207" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AF207" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG207" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI207" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL207" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AM207" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN207" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO207" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="208" hidden="true">
-      <c r="A208" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D208" s="2"/>
-      <c r="E208" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F208" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I208" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J208" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K208" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L208" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P208" s="2"/>
-      <c r="Q208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG208" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI208" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL208" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM208" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO208" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="209" hidden="true">
-      <c r="A209" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B209" s="2"/>
-      <c r="C209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D209" s="2"/>
-      <c r="E209" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F209" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G209" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I209" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J209" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="K209" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L209" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P209" s="2"/>
-      <c r="Q209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W209" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X209" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="Y209" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="Z209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA209" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AB209" s="2"/>
-      <c r="AC209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD209" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AE209" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AF209" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG209" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH209" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AI209" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK209" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AL209" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AM209" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AN209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO209" t="s" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B210" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D210" s="2"/>
-      <c r="E210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F210" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G210" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I210" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J210" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="K210" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P210" s="2"/>
-      <c r="Q210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W210" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X210" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="Y210" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="Z210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE210" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AF210" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG210" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH210" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AI210" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK210" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AL210" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AM210" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AN210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO210" t="s" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="211" hidden="true">
-      <c r="A211" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B211" s="2"/>
-      <c r="C211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D211" s="2"/>
-      <c r="E211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F211" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J211" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K211" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P211" s="2"/>
-      <c r="Q211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE211" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF211" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG211" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM211" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN211" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO211" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="212" hidden="true">
-      <c r="A212" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B212" s="2"/>
-      <c r="C212" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D212" s="2"/>
-      <c r="E212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F212" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J212" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K212" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L212" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N212" s="2"/>
-      <c r="O212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P212" s="2"/>
-      <c r="Q212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA212" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB212" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD212" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE212" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF212" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG212" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI212" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM212" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN212" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO212" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="213" hidden="true">
-      <c r="A213" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="B213" s="2"/>
-      <c r="C213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D213" s="2"/>
-      <c r="E213" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F213" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I213" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J213" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="K213" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P213" s="2"/>
-      <c r="Q213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE213" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AF213" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG213" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI213" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL213" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AM213" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AN213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO213" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="214" hidden="true">
-      <c r="A214" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="B214" s="2"/>
-      <c r="C214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D214" s="2"/>
-      <c r="E214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F214" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H214" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I214" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J214" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K214" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M214" s="2"/>
-      <c r="N214" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P214" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="Q214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W214" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X214" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="Y214" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="Z214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE214" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AF214" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG214" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI214" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL214" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM214" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN214" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO214" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="215" hidden="true">
-      <c r="A215" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="B215" s="2"/>
-      <c r="C215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D215" s="2"/>
-      <c r="E215" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F215" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I215" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J215" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K215" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M215" s="2"/>
-      <c r="N215" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P215" s="2"/>
-      <c r="Q215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE215" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AF215" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG215" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI215" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL215" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AM215" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AN215" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO215" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="216" hidden="true">
-      <c r="A216" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="B216" s="2"/>
-      <c r="C216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D216" s="2"/>
-      <c r="E216" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F216" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I216" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J216" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K216" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="M216" s="2"/>
-      <c r="N216" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="O216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P216" s="2"/>
-      <c r="Q216" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="R216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE216" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AF216" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG216" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH216" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AI216" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL216" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AM216" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="AN216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO216" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="217" hidden="true">
-      <c r="A217" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B217" s="2"/>
-      <c r="C217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D217" s="2"/>
-      <c r="E217" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="F217" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I217" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J217" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K217" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="L217" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="O217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P217" s="2"/>
-      <c r="Q217" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="R217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE217" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AF217" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG217" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI217" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL217" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AM217" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AN217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO217" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B218" s="2"/>
-      <c r="C218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D218" s="2"/>
-      <c r="E218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F218" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G218" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J218" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K218" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="L218" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P218" s="2"/>
-      <c r="Q218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W218" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X218" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="Y218" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="Z218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE218" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AF218" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG218" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH218" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AI218" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL218" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM218" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AN218" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO218" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="219" hidden="true">
-      <c r="A219" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B219" s="2"/>
-      <c r="C219" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="D219" s="2"/>
-      <c r="E219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J219" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K219" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P219" s="2"/>
-      <c r="Q219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W219" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="X219" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Y219" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE219" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AF219" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI219" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK219" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AL219" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AM219" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AN219" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO219" t="s" s="2">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="220" hidden="true">
-      <c r="A220" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D220" s="2"/>
-      <c r="E220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F220" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K220" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P220" s="2"/>
-      <c r="Q220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE220" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AF220" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG220" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI220" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL220" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AM220" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN220" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO220" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO220">
+  <autoFilter ref="A1:AO170">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -28427,7 +22489,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI219">
+  <conditionalFormatting sqref="A2:AI169">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -472,7 +472,7 @@
     <t>sleepStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationSleepStatus}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationSleepStatus}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>cuffSize</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationCuffSize}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationCuffSize}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>diastolicEndpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationDiastolicEndPoint}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationDiastolicEndPoint}
 </t>
   </si>
   <si>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.3</t>
   </si>
   <si>
     <t>Name</t>
